--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_6_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_6_qoq_forecast_error_table_latest_eval.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07419882731820041</v>
+        <v>-0.03692426742398824</v>
       </c>
       <c r="C2">
-        <v>1.337757721272759</v>
+        <v>0.9235226024562185</v>
       </c>
       <c r="D2">
-        <v>9.827596144312645</v>
+        <v>3.971520758787362</v>
       </c>
       <c r="E2">
-        <v>3.134899702432702</v>
+        <v>1.992867471455983</v>
       </c>
       <c r="F2">
-        <v>3.165206548063491</v>
+        <v>1.999337444223448</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0318719375149274</v>
+        <v>-0.03177683422839171</v>
       </c>
       <c r="C3">
-        <v>1.484978161934237</v>
+        <v>0.9693390602487294</v>
       </c>
       <c r="D3">
-        <v>9.229147191442671</v>
+        <v>3.736704271858642</v>
       </c>
       <c r="E3">
-        <v>3.03795115027261</v>
+        <v>1.93305568255512</v>
       </c>
       <c r="F3">
-        <v>3.068625194235299</v>
+        <v>1.9394478376698</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07763877361277893</v>
+        <v>-0.02353880723304746</v>
       </c>
       <c r="C4">
-        <v>1.390091861491201</v>
+        <v>0.9831351250254978</v>
       </c>
       <c r="D4">
-        <v>6.971496353914397</v>
+        <v>3.070892265452475</v>
       </c>
       <c r="E4">
-        <v>2.640359133510894</v>
+        <v>1.752396149691181</v>
       </c>
       <c r="F4">
-        <v>2.666567550876379</v>
+        <v>1.758311685393883</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0027173285822412</v>
+        <v>-0.02156877303751792</v>
       </c>
       <c r="C5">
-        <v>1.635040883269796</v>
+        <v>1.012039586790341</v>
       </c>
       <c r="D5">
-        <v>9.649822969126083</v>
+        <v>3.816035443232021</v>
       </c>
       <c r="E5">
-        <v>3.106416419143783</v>
+        <v>1.953467543429381</v>
       </c>
       <c r="F5">
-        <v>3.139288264952675</v>
+        <v>1.960166457363047</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1033523239345538</v>
+        <v>-0.01495571568351286</v>
       </c>
       <c r="C6">
-        <v>1.503069249315635</v>
+        <v>1.051064849666794</v>
       </c>
       <c r="D6">
-        <v>8.686182792925141</v>
+        <v>3.719246895078482</v>
       </c>
       <c r="E6">
-        <v>2.947233074075605</v>
+        <v>1.928534908960292</v>
       </c>
       <c r="F6">
-        <v>2.97726366649755</v>
+        <v>1.935255416224088</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.00824197970892185</v>
+        <v>-0.008295795536640492</v>
       </c>
       <c r="C7">
-        <v>1.667562176238278</v>
+        <v>1.080121458890243</v>
       </c>
       <c r="D7">
-        <v>8.839740055682562</v>
+        <v>3.644641354874411</v>
       </c>
       <c r="E7">
-        <v>2.973170034774762</v>
+        <v>1.909094380818929</v>
       </c>
       <c r="F7">
-        <v>3.006012189562184</v>
+        <v>1.915834169966563</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1262422412353678</v>
+        <v>0.008388099687491768</v>
       </c>
       <c r="C8">
-        <v>1.56762830693314</v>
+        <v>1.146257834064731</v>
       </c>
       <c r="D8">
-        <v>8.721767756028379</v>
+        <v>3.828066810259369</v>
       </c>
       <c r="E8">
-        <v>2.95326391574278</v>
+        <v>1.956544609831161</v>
       </c>
       <c r="F8">
-        <v>2.983905233098791</v>
+        <v>1.963501790635553</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_6_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_6_qoq_forecast_error_table_latest_eval.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03692426742398824</v>
+        <v>-0.07419882731820041</v>
       </c>
       <c r="C2">
-        <v>0.9235226024562185</v>
+        <v>1.337757721272759</v>
       </c>
       <c r="D2">
-        <v>3.971520758787362</v>
+        <v>9.827596144312645</v>
       </c>
       <c r="E2">
-        <v>1.992867471455983</v>
+        <v>3.134899702432702</v>
       </c>
       <c r="F2">
-        <v>1.999337444223448</v>
+        <v>3.165206548063491</v>
       </c>
       <c r="G2">
-        <v>147</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03177683422839171</v>
+        <v>-0.0318719375149274</v>
       </c>
       <c r="C3">
-        <v>0.9693390602487294</v>
+        <v>1.484978161934237</v>
       </c>
       <c r="D3">
-        <v>3.736704271858642</v>
+        <v>9.229147191442671</v>
       </c>
       <c r="E3">
-        <v>1.93305568255512</v>
+        <v>3.03795115027261</v>
       </c>
       <c r="F3">
-        <v>1.9394478376698</v>
+        <v>3.068625194235299</v>
       </c>
       <c r="G3">
-        <v>146</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02353880723304746</v>
+        <v>-0.07763877361277893</v>
       </c>
       <c r="C4">
-        <v>0.9831351250254978</v>
+        <v>1.390091861491201</v>
       </c>
       <c r="D4">
-        <v>3.070892265452475</v>
+        <v>6.971496353914397</v>
       </c>
       <c r="E4">
-        <v>1.752396149691181</v>
+        <v>2.640359133510894</v>
       </c>
       <c r="F4">
-        <v>1.758311685393883</v>
+        <v>2.666567550876379</v>
       </c>
       <c r="G4">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02156877303751792</v>
+        <v>-0.0027173285822412</v>
       </c>
       <c r="C5">
-        <v>1.012039586790341</v>
+        <v>1.635040883269796</v>
       </c>
       <c r="D5">
-        <v>3.816035443232021</v>
+        <v>9.649822969126083</v>
       </c>
       <c r="E5">
-        <v>1.953467543429381</v>
+        <v>3.106416419143783</v>
       </c>
       <c r="F5">
-        <v>1.960166457363047</v>
+        <v>3.139288264952675</v>
       </c>
       <c r="G5">
-        <v>144</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01495571568351286</v>
+        <v>-0.1033523239345538</v>
       </c>
       <c r="C6">
-        <v>1.051064849666794</v>
+        <v>1.503069249315635</v>
       </c>
       <c r="D6">
-        <v>3.719246895078482</v>
+        <v>8.686182792925141</v>
       </c>
       <c r="E6">
-        <v>1.928534908960292</v>
+        <v>2.947233074075605</v>
       </c>
       <c r="F6">
-        <v>1.935255416224088</v>
+        <v>2.97726366649755</v>
       </c>
       <c r="G6">
-        <v>143</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.008295795536640492</v>
+        <v>-0.00824197970892185</v>
       </c>
       <c r="C7">
-        <v>1.080121458890243</v>
+        <v>1.667562176238278</v>
       </c>
       <c r="D7">
-        <v>3.644641354874411</v>
+        <v>8.839740055682562</v>
       </c>
       <c r="E7">
-        <v>1.909094380818929</v>
+        <v>2.973170034774762</v>
       </c>
       <c r="F7">
-        <v>1.915834169966563</v>
+        <v>3.006012189562184</v>
       </c>
       <c r="G7">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.008388099687491768</v>
+        <v>-0.1262422412353678</v>
       </c>
       <c r="C8">
-        <v>1.146257834064731</v>
+        <v>1.56762830693314</v>
       </c>
       <c r="D8">
-        <v>3.828066810259369</v>
+        <v>8.721767756028379</v>
       </c>
       <c r="E8">
-        <v>1.956544609831161</v>
+        <v>2.95326391574278</v>
       </c>
       <c r="F8">
-        <v>1.963501790635553</v>
+        <v>2.983905233098791</v>
       </c>
       <c r="G8">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
